--- a/BOM_PVBRAIN__OPTION1.xlsx
+++ b/BOM_PVBRAIN__OPTION1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sougnoux\OneDrive\Bureau\esphome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TELECHARGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B42F9DB-D9DA-4C05-A1BD-D90B88C1743E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242B3237-DA92-498A-921F-B0010DC2F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
   <si>
     <t>CONN-TH_B4B-XH-AM-LF-SN</t>
   </si>
@@ -142,13 +142,7 @@
     <t>C2763337</t>
   </si>
   <si>
-    <t>HDR-TH_19P-P2.00-V-F</t>
-  </si>
-  <si>
     <t>U4,U5</t>
-  </si>
-  <si>
-    <t>C2906049</t>
   </si>
   <si>
     <t>HDR-TH_4P-P2.54-V-M</t>
@@ -339,30 +333,6 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/Pin-Headers_Liansheng-PH-00676_C2685179.html</t>
-  </si>
-  <si>
-    <t>TDPOWER TAS40-5-W</t>
-  </si>
-  <si>
-    <t>C695931</t>
-  </si>
-  <si>
-    <t>version alim 8A</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Power-Modules_span-style-background-color-ff0-TDPOWER-span-TAS40-5-W_C695931.html</t>
-  </si>
-  <si>
-    <t>TDPOWER TAS50-5-W</t>
-  </si>
-  <si>
-    <t>C695935</t>
-  </si>
-  <si>
-    <t>version alim 10A</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Power-Modules_span-style-background-color-ff0-TDPOWER-span-TAS50-5-W_C695935.html</t>
   </si>
   <si>
     <t>ADAFRUIT_ADS1115_16BIT</t>
@@ -522,26 +492,6 @@
     <t>https://fr.aliexpress.com/item/32817162654.html?spm=a2g0o.order_list.0.0.72aa5e5byKNuEv&amp;gatewayAdapt=glo2fra</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Agency FB"/>
-        <family val="2"/>
-      </rPr>
-      <t>pour ceux qui manque encore du courant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Agency FB"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">ne pas utilisé H9 si stepdown </t>
   </si>
   <si>
@@ -633,13 +583,22 @@
   </si>
   <si>
     <t>BME280</t>
+  </si>
+  <si>
+    <t>HDR-TH_19P-P2.54-V-F</t>
+  </si>
+  <si>
+    <t>C2897382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non iclus sur la carte </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,12 +770,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Agency FB"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Agency FB"/>
       <family val="2"/>
     </font>
@@ -1314,19 +1267,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1683,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,39 +1652,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1763,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1786,10 +1739,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1812,10 +1765,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1838,7 +1791,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1861,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1884,10 +1837,10 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1910,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,7 +1874,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1933,7 +1886,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1956,10 +1909,10 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1982,7 +1935,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2005,7 +1958,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2028,10 +1981,10 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +2007,7 @@
         <v>39</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2062,22 +2015,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2085,22 +2038,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2108,25 +2061,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2134,22 +2087,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2157,22 +2110,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2180,22 +2133,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,22 +2156,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,25 +2179,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,291 +2205,252 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7">
+      <c r="A26" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G28" t="s">
-        <v>168</v>
+        <v>141</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" t="s">
-        <v>163</v>
+      <c r="H30" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" t="s">
         <v>169</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" t="s">
-        <v>180</v>
-      </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>179</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="4"/>
+      <c r="B39" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="H39" s="4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
-        <v>190</v>
+      <c r="B40" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="F40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
+      <c r="B41" s="23" t="s">
+        <v>179</v>
+      </c>
       <c r="F41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="21"/>
       <c r="F42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:16" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="P43" s="10"/>
-    </row>
-    <row r="44" spans="1:16" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
-        <v>7</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="P44" s="15"/>
-    </row>
-    <row r="45" spans="1:16" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
-        <v>7</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="16">
-        <v>1</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="P45" s="19"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
-      <c r="H46" s="4"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="21"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="P44" s="10"/>
+    </row>
+    <row r="45" spans="1:16" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="P45" s="15"/>
+    </row>
+    <row r="46" spans="1:16" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="P46" s="19"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -2548,13 +2462,19 @@
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="4"/>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="22"/>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2566,262 +2486,265 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
       <c r="H57" s="4" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>9</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
         <v>62</v>
       </c>
-      <c r="C64" t="s">
+      <c r="H65" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
         <v>136</v>
       </c>
-      <c r="D64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>11</v>
-      </c>
-      <c r="B66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66">
+      <c r="E67">
         <v>1</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>147</v>
+      <c r="H67" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2844,36 +2767,31 @@
     <hyperlink ref="H21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="H23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="H24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H64" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H61" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H60" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H59" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H58" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H65" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H64" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H61" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H60" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H59" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="H22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="H17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="H11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="H9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H57" r:id="rId32" xr:uid="{14A29CB5-6481-4550-B4E6-1306F29BF640}"/>
-    <hyperlink ref="H27" r:id="rId33" xr:uid="{B0A4B473-BE38-4CC2-AAFF-A1E122D14797}"/>
-    <hyperlink ref="F30" r:id="rId34" display="https://lcsc.com/product-detail/Shunts-Jumpers_JST-Sales-America-JM-2BK-61_C265313.html" xr:uid="{3F081F86-1E56-4F09-811A-30666E7A1AA7}"/>
-    <hyperlink ref="H31" r:id="rId35" xr:uid="{C1E9692E-2788-46F2-ADFE-60F91DE8A96A}"/>
-    <hyperlink ref="H32" r:id="rId36" xr:uid="{E7E516FD-1CAE-448F-95A6-CDF301D717E8}"/>
-    <hyperlink ref="B45" r:id="rId37" display="https://datasheet.lcsc.com/lcsc/2105241314_TDPOWER-TAS50-5-W_C695935.pdf" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D45" r:id="rId38" display="https://datasheet.lcsc.com/lcsc/2105241314_TDPOWER-TAS50-5-W_C695935.pdf" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D44" r:id="rId39" display="https://datasheet.lcsc.com/lcsc/2008151534_TDPOWER-TAS40-5-W_C695931.pdf" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F44" r:id="rId41" display="https://www.lcsc.com/product-detail/Power-Modules_span-style-background-color-ff0-TDPOWER-span-TAS40-5-W_C695931.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H33" r:id="rId42" xr:uid="{21321C21-DCEC-4427-B9DB-B902AFD4C0AB}"/>
-    <hyperlink ref="H36" r:id="rId43" xr:uid="{F0E18B51-3B66-4D5F-9C25-A316F3D94E05}"/>
-    <hyperlink ref="H38" r:id="rId44" xr:uid="{CCE25A02-15BD-4A3D-8146-222FD9998EDC}"/>
-    <hyperlink ref="H39" r:id="rId45" display="https://fr.aliexpress.com/item/1005001368629647.html?spm=a2g0o.productlist.0.0.595a17332HzUul&amp;algo_pvid=086d0326-a2cc-41e1-9a88-e8619d869054&amp;aem_p4p_detail=2022020404134310414827657646720031555574&amp;algo_exp_id=086d0326-a2cc-41e1-9a88-e8619d869054-9&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000015831445495%22%7D&amp;pdp_pi=-1%3B0.73%3B-1%3B-1%40salePrice%3BEUR%3Bsearch-mainSearch" xr:uid="{7FB911CE-05BD-41E3-9863-E2CDE9360252}"/>
-    <hyperlink ref="I36" r:id="rId46" xr:uid="{6B1F8B7D-FC93-4F6E-A574-C5A60E4F42B3}"/>
+    <hyperlink ref="H58" r:id="rId32" xr:uid="{14A29CB5-6481-4550-B4E6-1306F29BF640}"/>
+    <hyperlink ref="H28" r:id="rId33" xr:uid="{B0A4B473-BE38-4CC2-AAFF-A1E122D14797}"/>
+    <hyperlink ref="F31" r:id="rId34" display="https://lcsc.com/product-detail/Shunts-Jumpers_JST-Sales-America-JM-2BK-61_C265313.html" xr:uid="{3F081F86-1E56-4F09-811A-30666E7A1AA7}"/>
+    <hyperlink ref="H32" r:id="rId35" xr:uid="{C1E9692E-2788-46F2-ADFE-60F91DE8A96A}"/>
+    <hyperlink ref="H33" r:id="rId36" xr:uid="{E7E516FD-1CAE-448F-95A6-CDF301D717E8}"/>
+    <hyperlink ref="H34" r:id="rId37" xr:uid="{21321C21-DCEC-4427-B9DB-B902AFD4C0AB}"/>
+    <hyperlink ref="H37" r:id="rId38" xr:uid="{F0E18B51-3B66-4D5F-9C25-A316F3D94E05}"/>
+    <hyperlink ref="H39" r:id="rId39" xr:uid="{CCE25A02-15BD-4A3D-8146-222FD9998EDC}"/>
+    <hyperlink ref="H40" r:id="rId40" display="https://fr.aliexpress.com/item/1005001368629647.html?spm=a2g0o.productlist.0.0.595a17332HzUul&amp;algo_pvid=086d0326-a2cc-41e1-9a88-e8619d869054&amp;aem_p4p_detail=2022020404134310414827657646720031555574&amp;algo_exp_id=086d0326-a2cc-41e1-9a88-e8619d869054-9&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000015831445495%22%7D&amp;pdp_pi=-1%3B0.73%3B-1%3B-1%40salePrice%3BEUR%3Bsearch-mainSearch" xr:uid="{7FB911CE-05BD-41E3-9863-E2CDE9360252}"/>
+    <hyperlink ref="I37" r:id="rId41" xr:uid="{6B1F8B7D-FC93-4F6E-A574-C5A60E4F42B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/BOM_PVBRAIN__OPTION1.xlsx
+++ b/BOM_PVBRAIN__OPTION1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TELECHARGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242B3237-DA92-498A-921F-B0010DC2F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540488B9-ACF3-4CFE-A6CA-30EAD6E2C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="183">
   <si>
     <t>CONN-TH_B4B-XH-AM-LF-SN</t>
   </si>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,6 +2731,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">

--- a/BOM_PVBRAIN__OPTION1.xlsx
+++ b/BOM_PVBRAIN__OPTION1.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TELECHARGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540488B9-ACF3-4CFE-A6CA-30EAD6E2C413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E871E591-B6CD-4F74-AB9A-E78308572AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PVBRAIN + OPTION1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="lien">'BOM_PVBRAIN + OPTION1'!$H$3</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="202">
   <si>
     <t>CONN-TH_B4B-XH-AM-LF-SN</t>
   </si>
@@ -592,6 +595,63 @@
   </si>
   <si>
     <t xml:space="preserve">non iclus sur la carte </t>
+  </si>
+  <si>
+    <t>alimentation 5v possible</t>
+  </si>
+  <si>
+    <t>TDPOWER TAS50-5-W (10A)</t>
+  </si>
+  <si>
+    <t>TDPOWER TAS40-5-W (8A)</t>
+  </si>
+  <si>
+    <t>TDPOWER TAS25-5-W (5A)</t>
+  </si>
+  <si>
+    <t>TDPOWER TAS20-5-WH (4A)</t>
+  </si>
+  <si>
+    <t>TDPOWER TAS15-5-W (3A)</t>
+  </si>
+  <si>
+    <t>TDPOWER TAS10-5-W2 (2A)</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS10-5-WH_C2936957.html</t>
+  </si>
+  <si>
+    <t>C570976</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS15-5-W_C570976.html</t>
+  </si>
+  <si>
+    <t>C2936957</t>
+  </si>
+  <si>
+    <t>C570980</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS20-5-WH_C570980.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS25-5-W_C695923.html</t>
+  </si>
+  <si>
+    <t>C695923</t>
+  </si>
+  <si>
+    <t>C695931</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS40-5-W_C695931.html</t>
+  </si>
+  <si>
+    <t>C695935</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS50-5-W_C695935.html</t>
   </si>
 </sst>
 </file>
@@ -800,7 +860,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,6 +1043,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1313,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1280,6 +1346,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1636,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,53 +2498,90 @@
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:16" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="A44" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="C45" s="11"/>
       <c r="D45" s="13"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="F45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="P45" s="15"/>
     </row>
-    <row r="46" spans="1:16" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
+      <c r="B46" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="F46" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>199</v>
+      </c>
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="F47" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H49" s="4"/>
+      <c r="B49" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="H50" s="4"/>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H51" s="4"/>
@@ -2486,267 +2592,264 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
+    <row r="54" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="55" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>25</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58">
         <v>2</v>
       </c>
-      <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
+      <c r="F58" t="s">
+        <v>32</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="H67" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2770,20 +2873,20 @@
     <hyperlink ref="H21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="H23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="H24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H57" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H65" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H67" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H64" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H63" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H62" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H61" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H60" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H59" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H56" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H64" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H66" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H62" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H61" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H60" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H59" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H58" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="H22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="H17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="H11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="H9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H58" r:id="rId32" xr:uid="{14A29CB5-6481-4550-B4E6-1306F29BF640}"/>
+    <hyperlink ref="H57" r:id="rId32" xr:uid="{14A29CB5-6481-4550-B4E6-1306F29BF640}"/>
     <hyperlink ref="H28" r:id="rId33" xr:uid="{B0A4B473-BE38-4CC2-AAFF-A1E122D14797}"/>
     <hyperlink ref="F31" r:id="rId34" display="https://lcsc.com/product-detail/Shunts-Jumpers_JST-Sales-America-JM-2BK-61_C265313.html" xr:uid="{3F081F86-1E56-4F09-811A-30666E7A1AA7}"/>
     <hyperlink ref="H32" r:id="rId35" xr:uid="{C1E9692E-2788-46F2-ADFE-60F91DE8A96A}"/>
@@ -2793,8 +2896,15 @@
     <hyperlink ref="H39" r:id="rId39" xr:uid="{CCE25A02-15BD-4A3D-8146-222FD9998EDC}"/>
     <hyperlink ref="H40" r:id="rId40" display="https://fr.aliexpress.com/item/1005001368629647.html?spm=a2g0o.productlist.0.0.595a17332HzUul&amp;algo_pvid=086d0326-a2cc-41e1-9a88-e8619d869054&amp;aem_p4p_detail=2022020404134310414827657646720031555574&amp;algo_exp_id=086d0326-a2cc-41e1-9a88-e8619d869054-9&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000015831445495%22%7D&amp;pdp_pi=-1%3B0.73%3B-1%3B-1%40salePrice%3BEUR%3Bsearch-mainSearch" xr:uid="{7FB911CE-05BD-41E3-9863-E2CDE9360252}"/>
     <hyperlink ref="I37" r:id="rId41" xr:uid="{6B1F8B7D-FC93-4F6E-A574-C5A60E4F42B3}"/>
+    <hyperlink ref="F49" r:id="rId42" display="https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS15-5-W_C570976.html" xr:uid="{98DF8DCC-9DEC-4CF2-BE52-2F609B712E5B}"/>
+    <hyperlink ref="F50" r:id="rId43" display="https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS10-5-WH_C2936957.html" xr:uid="{FFE3E43A-80B6-43E2-81DB-240C512FFC0F}"/>
+    <hyperlink ref="F48" r:id="rId44" display="https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS20-5-WH_C570980.html" xr:uid="{3596670A-63CB-4007-A04B-9AA138073C94}"/>
+    <hyperlink ref="F46" r:id="rId45" display="https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS40-5-W_C695931.html" xr:uid="{2E7492D3-D7AF-45C5-A5E4-F62EAB340753}"/>
+    <hyperlink ref="F45" r:id="rId46" display="https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS50-5-W_C695935.html" xr:uid="{3C3B1074-50C5-443C-A4B8-82C80DFBEA29}"/>
+    <hyperlink ref="H47" r:id="rId47" xr:uid="{C2AB409E-6021-458E-86ED-A6512FE67EA0}"/>
+    <hyperlink ref="F47" r:id="rId48" xr:uid="{356B675A-64F9-47AE-8835-172DB094F510}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/BOM_PVBRAIN__OPTION1.xlsx
+++ b/BOM_PVBRAIN__OPTION1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TELECHARGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E871E591-B6CD-4F74-AB9A-E78308572AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6E2B8-014B-452A-A3E7-782C4112E034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="202">
   <si>
     <t>CONN-TH_B4B-XH-AM-LF-SN</t>
   </si>
@@ -76,9 +76,6 @@
     <t>R2,R1</t>
   </si>
   <si>
-    <t>C173060</t>
-  </si>
-  <si>
     <t>CONN-TH_KF250T-5.0-2X4P</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>U1</t>
-  </si>
-  <si>
-    <t>C161879</t>
   </si>
   <si>
     <t>CONN-TH_XY118-5.0-2P</t>
@@ -652,6 +646,12 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS50-5-W_C695935.html</t>
+  </si>
+  <si>
+    <t>C176641</t>
+  </si>
+  <si>
+    <t>B4B-XH-AM(LF)(SN)</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,39 +1721,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,10 +1808,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,10 +1834,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1903,13 +1903,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1917,22 +1917,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1940,22 +1940,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1963,25 +1963,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,22 +1989,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2012,22 +2012,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2035,25 +2035,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2061,22 +2061,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2084,22 +2084,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2107,22 +2107,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,25 +2130,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2156,22 +2156,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,22 +2179,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2202,22 +2202,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2225,22 +2225,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2248,25 +2248,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2274,22 +2274,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,13 +2297,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="4"/>
@@ -2312,179 +2312,179 @@
       </c>
       <c r="F27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" t="s">
         <v>150</v>
-      </c>
-      <c r="G31" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" t="s">
         <v>161</v>
       </c>
-      <c r="E35" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" t="s">
-        <v>163</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -2499,88 +2499,88 @@
     </row>
     <row r="44" spans="1:16" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="13"/>
       <c r="E45" s="11"/>
       <c r="F45" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="16"/>
       <c r="F46" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
       <c r="F47" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2594,39 +2594,39 @@
     </row>
     <row r="54" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2634,22 +2634,22 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2657,19 +2657,19 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
         <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" t="s">
-        <v>106</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2677,22 +2677,22 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
         <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" t="s">
-        <v>31</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,22 +2700,22 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2723,22 +2723,22 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
         <v>110</v>
-      </c>
-      <c r="C60" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" t="s">
-        <v>112</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2746,22 +2746,22 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
         <v>114</v>
-      </c>
-      <c r="C61" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" t="s">
-        <v>116</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2769,22 +2769,22 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
         <v>118</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" t="s">
-        <v>120</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,22 +2792,22 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" t="s">
         <v>122</v>
-      </c>
-      <c r="C63" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" t="s">
-        <v>124</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2815,27 +2815,27 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H65" s="4"/>
     </row>
@@ -2844,13 +2844,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/BOM_PVBRAIN__OPTION1.xlsx
+++ b/BOM_PVBRAIN__OPTION1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TELECHARGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF6E2B8-014B-452A-A3E7-782C4112E034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58818B55-763E-4731-8342-E006CD66F290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="200">
   <si>
     <t>CONN-TH_B4B-XH-AM-LF-SN</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>C152153</t>
-  </si>
-  <si>
-    <t>CONN-TH_S4B-JL-R-LF-SN</t>
   </si>
   <si>
     <t>U1</t>
@@ -264,12 +261,6 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/Screw-terminal_DEGSON-DG308-2-54-03P-14-00A-H_C691850.html</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Through-Hole-Resistors_YAGEO-MFR-25FTF52-4R7_C173060.html</t>
-  </si>
-  <si>
-    <t>resistance pullup pas oblogatoire</t>
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/Spring-Clamp-System-Terminal-Block_Cixi-Kefa-Elec-KF250T-5-0-2-4P_C976538.html</t>
@@ -648,10 +639,13 @@
     <t>https://lcsc.com/product-detail/Power-Modules_TDPOWER-TAS50-5-W_C695935.html</t>
   </si>
   <si>
-    <t>C176641</t>
-  </si>
-  <si>
     <t>B4B-XH-AM(LF)(SN)</t>
+  </si>
+  <si>
+    <t>C176521</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Through-Hole-Resistors_YAGEO-MFR-25JT-52-4K7_C176521.html</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,39 +1715,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1785,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,10 +1802,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,10 +1828,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1860,7 +1854,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1883,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1903,13 +1897,10 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1943,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1955,7 +1946,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1963,13 +1954,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1978,10 +1969,10 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1989,22 +1980,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2012,22 +2003,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2035,25 +2026,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2061,22 +2052,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2084,22 +2075,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2107,22 +2098,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,25 +2121,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2156,22 +2147,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,22 +2170,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2202,22 +2193,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2225,22 +2216,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2248,25 +2239,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2274,22 +2265,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,13 +2288,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="4"/>
@@ -2312,179 +2303,179 @@
       </c>
       <c r="F27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -2499,88 +2490,88 @@
     </row>
     <row r="44" spans="1:16" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="13"/>
       <c r="E45" s="11"/>
       <c r="F45" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P45" s="15"/>
     </row>
     <row r="46" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="16"/>
       <c r="F46" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P46" s="19"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
       <c r="F47" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2594,39 +2585,39 @@
     </row>
     <row r="54" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2634,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2649,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2657,19 +2648,19 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2677,22 +2668,22 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,22 +2691,22 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2723,22 +2714,22 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2746,22 +2737,22 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2769,22 +2760,22 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,22 +2783,22 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2815,27 +2806,27 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H65" s="4"/>
     </row>
@@ -2844,13 +2835,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/BOM_PVBRAIN__OPTION1.xlsx
+++ b/BOM_PVBRAIN__OPTION1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TELECHARGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58818B55-763E-4731-8342-E006CD66F290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD0D558-F00D-4032-9480-A9D8CCFE596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="205">
   <si>
     <t>CONN-TH_B4B-XH-AM-LF-SN</t>
   </si>
@@ -646,6 +646,21 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/Through-Hole-Resistors_YAGEO-MFR-25JT-52-4K7_C176521.html</t>
+  </si>
+  <si>
+    <t>FUSE-SMD_L9.8-W5.0</t>
+  </si>
+  <si>
+    <t>F4,F6,F7,F5</t>
+  </si>
+  <si>
+    <t>C108518</t>
+  </si>
+  <si>
+    <t>fusible de protection 5V et 3V3</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Fuse-Holders_Littelfuse-01550900M_C108518.html</t>
   </si>
 </sst>
 </file>
@@ -1701,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,7 +2299,30 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="4"/>
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
